--- a/data/trans_dic/P16-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,01%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>57,82; 63,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>69,05; 74,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>64,88; 71,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>66,61; 74,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>73,93; 78,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>83,06; 87,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>82,27; 86,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>80,55; 85,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>67,75; 71,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>77,52; 81,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>75,56; 79,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>75,72; 80,04</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,05%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,11%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>28,26; 32,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>39,84; 44,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>41,78; 46,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>43,84; 50,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>43,83; 48,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>59,75; 64,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>55,34; 59,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>57,43; 67,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,26; 39,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>49,78; 53,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>49,22; 52,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>51,66; 57,98</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,84%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>29,13; 37,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>35,96; 45,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>40,43; 49,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>47,97; 56,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>46,13; 55,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>53,83; 63,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>50,88; 59,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>53,85; 60,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>38,76; 45,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>45,87; 53,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>46,94; 53,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>52,21; 57,52</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,44%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,83%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>38,75; 42,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,72; 52,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,05; 51,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>49,32; 54,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>56,82; 60,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>68,51; 71,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>63,13; 66,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>62,84; 68,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,5; 50,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>59,29; 61,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>56,22; 58,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>57,16; 61,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,52%</t>
+          <t>70,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>82,88%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>78,01%</t>
+          <t>78,0%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,61; 74,28</t>
+          <t>66,31; 74,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,55; 85,15</t>
+          <t>80,91; 85,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,72; 80,04</t>
+          <t>75,64; 80,06</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>43,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>60,35%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>54,11%</t>
+          <t>53,23%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,84; 50,29</t>
+          <t>31,3; 49,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>57,43; 67,56</t>
+          <t>57,98; 74,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,66; 57,98</t>
+          <t>44,72; 59,1</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>52,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,31%</t>
+          <t>57,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>55,26%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,97; 56,43</t>
+          <t>48,17; 57,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,85; 60,4</t>
+          <t>54,35; 60,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,21; 57,52</t>
+          <t>52,5; 58,04</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,72%</t>
+          <t>66,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
+          <t>58,02%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,32; 54,2</t>
+          <t>38,94; 53,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,84; 68,24</t>
+          <t>63,37; 72,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,16; 61,05</t>
+          <t>51,33; 61,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,82; 63,98</t>
+          <t>58,0; 64,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,05; 74,47</t>
+          <t>68,66; 74,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64,88; 71,51</t>
+          <t>64,9; 71,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,31; 74,34</t>
+          <t>66,16; 74,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,93; 78,64</t>
+          <t>74,19; 78,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,06; 87,2</t>
+          <t>82,96; 86,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,27; 86,98</t>
+          <t>82,16; 86,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,91; 85,4</t>
+          <t>80,8; 85,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,75; 71,56</t>
+          <t>67,68; 71,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>77,52; 81,18</t>
+          <t>77,76; 81,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,56; 79,6</t>
+          <t>75,44; 79,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,64; 80,06</t>
+          <t>75,86; 79,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,26; 32,8</t>
+          <t>28,26; 32,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,84; 44,79</t>
+          <t>39,84; 44,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,78; 46,33</t>
+          <t>42,01; 46,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,3; 49,69</t>
+          <t>30,43; 49,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,83; 48,83</t>
+          <t>43,74; 48,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,75; 64,52</t>
+          <t>59,31; 64,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,34; 59,92</t>
+          <t>55,36; 59,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>57,98; 74,15</t>
+          <t>58,11; 74,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,26; 39,73</t>
+          <t>36,25; 39,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,78; 53,09</t>
+          <t>49,73; 53,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,22; 52,36</t>
+          <t>49,1; 52,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>44,72; 59,1</t>
+          <t>45,08; 58,86</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 37,58</t>
+          <t>29,4; 37,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,96; 45,87</t>
+          <t>36,11; 45,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,43; 49,53</t>
+          <t>40,6; 49,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,17; 57,1</t>
+          <t>48,7; 57,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,13; 55,54</t>
+          <t>46,07; 55,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,83; 63,79</t>
+          <t>53,35; 64,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,88; 59,4</t>
+          <t>50,93; 59,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,35; 60,84</t>
+          <t>54,05; 61,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,76; 45,03</t>
+          <t>38,46; 44,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,87; 53,21</t>
+          <t>46,22; 53,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46,94; 53,04</t>
+          <t>46,57; 53,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,5; 58,04</t>
+          <t>52,68; 58,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,75; 42,26</t>
+          <t>38,87; 42,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,72; 52,09</t>
+          <t>48,65; 52,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,05; 51,44</t>
+          <t>47,86; 51,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,94; 53,75</t>
+          <t>38,86; 53,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,82; 60,16</t>
+          <t>56,74; 60,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,51; 71,69</t>
+          <t>68,64; 71,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>63,13; 66,42</t>
+          <t>63,25; 66,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,37; 72,47</t>
+          <t>63,38; 72,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,5; 50,86</t>
+          <t>48,45; 50,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,29; 61,83</t>
+          <t>59,15; 61,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56,22; 58,56</t>
+          <t>56,15; 58,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,33; 61,52</t>
+          <t>51,41; 61,63</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1634</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1713</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1718</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>628967</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>700302</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>362797</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1003568</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1137417</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>841159</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>625858</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1632534</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1837719</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1356749</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>988655</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>598408; 660548</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>669162; 727562</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>489578; 540583</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>340708; 382539</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>975644; 1034228</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1108998; 1162473</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>817229; 862855</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>608138; 642465</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1588408; 1679379</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1797326; 1877711</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1319492; 1388677</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>961606; 1013442</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2942</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>514134</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>825965</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>917243</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>998908</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>733888</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1087293</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1146737</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1411180</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1248022</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1913258</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2063980</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2410087</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>478318; 551333</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>780841; 871150</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>872240; 961316</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>696948; 1137088</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>694465; 773338</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1041960; 1128714</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1100770; 1191156</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1300053; 1655956</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1188890; 1298650</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1848353; 1982196</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1995699; 2126387</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2040823; 2664768</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>184762</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>195864</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>245683</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>340665</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>242020</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>268949</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>302316</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>381569</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>426782</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>464814</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>548000</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>722234</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>162139; 208621</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>173448; 218571</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>222028; 271009</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>314926; 369097</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>219501; 264011</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>244143; 293457</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>279659; 326371</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>356948; 403544</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>395253; 459125</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>433495; 500288</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>510426; 581194</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>688570; 758696</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3660</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3268</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3713</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5643</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1327863</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1722131</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1678517</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1702370</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1979475</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2493660</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2290212</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2418607</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3307338</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4215791</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3968729</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4120978</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1273254; 1384974</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1661440; 1779309</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1616497; 1737528</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1341312; 1860309</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1917351; 2039467</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2437612; 2544992</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2234206; 2346384</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2313415; 2656452</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3224177; 3385897</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4120844; 4295376</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3879500; 4057962</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3651006; 4377187</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>